--- a/downfiles/Resumo EDI - DELJIT.xlsx
+++ b/downfiles/Resumo EDI - DELJIT.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="0" visibility="visible"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="861" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="26289197" sheetId="1" r:id="rId4"/>
-    <sheet name="26289198" sheetId="2" r:id="rId5"/>
+    <sheet name="26306470" sheetId="1" r:id="rId4"/>
+    <sheet name="26306471" sheetId="2" r:id="rId5"/>
+    <sheet name="26306472" sheetId="3" r:id="rId6"/>
+    <sheet name="26306473" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -16,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>DELJIT</t>
   </si>
@@ -30,42 +32,48 @@
     <t>Data da Geração:</t>
   </si>
   <si>
-    <t>24/03/2019</t>
+    <t>09/12/2020</t>
+  </si>
+  <si>
+    <t>Emitente:</t>
+  </si>
+  <si>
+    <t>BFT</t>
   </si>
   <si>
     <t>Documento/Mensagem:</t>
   </si>
   <si>
-    <t>Emitente:</t>
-  </si>
-  <si>
-    <t>BFT</t>
+    <t>Indicador de Status:</t>
   </si>
   <si>
     <t>Função da Mensagem:</t>
   </si>
   <si>
-    <t>5 - Substituição</t>
-  </si>
-  <si>
-    <t>Indicador de Status:</t>
-  </si>
-  <si>
-    <t>next</t>
+    <t>4 - Alteração</t>
+  </si>
+  <si>
+    <t>Fim do Horizonte:</t>
+  </si>
+  <si>
+    <t>03/01/2021</t>
   </si>
   <si>
     <t>Início do Horizonte:</t>
   </si>
   <si>
-    <t>Fim do Horizonte:</t>
-  </si>
-  <si>
-    <t>14/04/2019</t>
+    <t>Quantidade Última Entrega:</t>
   </si>
   <si>
     <t>Programa Atual:</t>
   </si>
   <si>
+    <t>Data Última Entrega:</t>
+  </si>
+  <si>
+    <t>08/12/2020</t>
+  </si>
+  <si>
     <t>DADOS DO ITEM</t>
   </si>
   <si>
@@ -84,19 +92,61 @@
     <t>Doca:</t>
   </si>
   <si>
-    <t>BBB</t>
+    <t>MASC</t>
   </si>
   <si>
     <t>Material Handling:</t>
   </si>
   <si>
-    <t>MONTAGEM</t>
+    <t>M01B071E</t>
   </si>
   <si>
     <t>CRONOGRAMA</t>
   </si>
   <si>
-    <t>previous</t>
+    <t>Data-Hora</t>
+  </si>
+  <si>
+    <t>Quantidade</t>
+  </si>
+  <si>
+    <t>10/12/2020</t>
+  </si>
+  <si>
+    <t>11/12/2020</t>
+  </si>
+  <si>
+    <t>14/12/2020</t>
+  </si>
+  <si>
+    <t>15/12/2020</t>
+  </si>
+  <si>
+    <t>17/12/2020</t>
+  </si>
+  <si>
+    <t>18/12/2020</t>
+  </si>
+  <si>
+    <t>21/12/2020</t>
+  </si>
+  <si>
+    <t>22/12/2020</t>
+  </si>
+  <si>
+    <t>28/12/2020</t>
+  </si>
+  <si>
+    <t>29/12/2020</t>
+  </si>
+  <si>
+    <t>M01A071D</t>
+  </si>
+  <si>
+    <t>M01B101D</t>
+  </si>
+  <si>
+    <t>M01A101D</t>
   </si>
 </sst>
 </file>
@@ -297,38 +347,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="352425" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="" descr="">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0"/>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -364,25 +382,63 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="352425" cy="295275"/>
+    <xdr:ext cx="1628775" cy="476250"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="" descr="">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1" name="Imagem 2" descr=""/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1628775" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Imagem 2" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -689,10 +745,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -762,25 +818,35 @@
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
+      <c r="I7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:16" customHeight="1" ht="15">
       <c r="B8" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="5">
-        <v>10001</v>
+        <v>7480001</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="I8" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="5" t="s">
-        <v>7</v>
+      <c r="L8" s="5">
+        <v>6</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
@@ -788,32 +854,30 @@
     <row r="9" spans="1:16" customHeight="1" ht="15">
       <c r="A9" s="1"/>
       <c r="B9" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="I9" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="5">
-        <v>6</v>
+      <c r="L9" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
-      <c r="O9" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:16" customHeight="1" ht="15">
       <c r="B10" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -823,12 +887,12 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="I10" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="5" t="s">
-        <v>14</v>
+      <c r="L10" s="5">
+        <v>8480</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -844,62 +908,72 @@
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
+      <c r="I11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
     </row>
     <row r="14" spans="1:16" customHeight="1" ht="15.75">
       <c r="H14" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
     </row>
     <row r="16" spans="1:16" customHeight="1" ht="15">
       <c r="B16" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="12">
-        <v>26289197</v>
+        <v>26306470</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="B17" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="B18" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="13">
-        <v>72475</v>
+        <v>72671</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="B19" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="B20" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -909,7 +983,7 @@
     </row>
     <row r="22" spans="1:16">
       <c r="H22" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -920,13 +994,13 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="10" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="10">
-        <v>14</v>
+      <c r="J23" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -934,6 +1008,86 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="F24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="F25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="F26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="F27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="F28" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J28" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="F29" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J29" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="F30" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J30" s="5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="F31" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J31" s="5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="F32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J32" s="5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="F33" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J33" s="5">
+        <v>128</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -954,9 +1108,6 @@
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L8:N8"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="H22:J22"/>
     <mergeCell ref="H14:J14"/>
@@ -967,15 +1118,39 @@
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B17:D17"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L8:N8"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="E20:G20"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="J33:L33"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="O9" r:id="rId_hyperlink_1"/>
-  </hyperlinks>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
@@ -996,10 +1171,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1069,50 +1244,58 @@
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
+      <c r="I7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:16" customHeight="1" ht="15">
       <c r="B8" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="5">
-        <v>10001</v>
+        <v>7480001</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="I8" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="5" t="s">
-        <v>7</v>
+      <c r="L8" s="5">
+        <v>6</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
     </row>
     <row r="9" spans="1:16" customHeight="1" ht="15">
-      <c r="A9" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A9" s="1"/>
       <c r="B9" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="I9" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="5">
-        <v>6</v>
+      <c r="L9" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
@@ -1120,7 +1303,7 @@
     </row>
     <row r="10" spans="1:16" customHeight="1" ht="15">
       <c r="B10" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -1130,12 +1313,12 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="I10" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="5" t="s">
-        <v>14</v>
+      <c r="L10" s="5">
+        <v>8496</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -1151,62 +1334,72 @@
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
+      <c r="I11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
     </row>
     <row r="14" spans="1:16" customHeight="1" ht="15.75">
       <c r="H14" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
     </row>
     <row r="16" spans="1:16" customHeight="1" ht="15">
       <c r="B16" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="12">
-        <v>26289198</v>
+        <v>26306471</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="B17" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="B18" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="13">
-        <v>72475</v>
+        <v>72671</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="B19" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="B20" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="13" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1216,7 +1409,7 @@
     </row>
     <row r="22" spans="1:16">
       <c r="H22" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -1227,13 +1420,13 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="10" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="10">
-        <v>14</v>
+      <c r="J23" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -1241,6 +1434,86 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="F24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="F25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="F26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="F27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="F28" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J28" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="F29" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J29" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="F30" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J30" s="5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="F31" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J31" s="5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="F32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J32" s="5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="F33" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J33" s="5">
+        <v>112</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -1261,9 +1534,6 @@
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L8:N8"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="H22:J22"/>
     <mergeCell ref="H14:J14"/>
@@ -1274,15 +1544,891 @@
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B17:D17"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L8:N8"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="E20:G20"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="J33:L33"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A9" r:id="rId_hyperlink_1"/>
-  </hyperlinks>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:P33"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="false" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="true" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" customHeight="1" ht="15">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="H1"/>
+    </row>
+    <row r="2" spans="1:16" customHeight="1" ht="15">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+    </row>
+    <row r="3" spans="1:16" customHeight="1" ht="15"/>
+    <row r="4" spans="1:16" customHeight="1" ht="20.25">
+      <c r="A4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+    </row>
+    <row r="5" spans="1:16" customHeight="1" ht="15">
+      <c r="B5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="1:16" customHeight="1" ht="15"/>
+    <row r="7" spans="1:16" customHeight="1" ht="15">
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="I7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="1:16" customHeight="1" ht="15">
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5">
+        <v>7480001</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="I8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="5">
+        <v>6</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" customHeight="1" ht="15">
+      <c r="A9" s="1"/>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="I9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" customHeight="1" ht="15">
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="I10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="5">
+        <v>37360</v>
+      </c>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="1:16" customHeight="1" ht="15">
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="I11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="14" spans="1:16" customHeight="1" ht="15.75">
+      <c r="H14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="16" spans="1:16" customHeight="1" ht="15">
+      <c r="B16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="12">
+        <v>26306472</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="B17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="B18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="13">
+        <v>72671</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="B19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="B20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="H22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:16" customHeight="1" ht="15">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="F24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" s="5">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="F25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" s="5">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="F26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="5">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="F27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" s="5">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="F28" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J28" s="5">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="F29" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J29" s="5">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="F30" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J30" s="5">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="F31" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J31" s="5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="F32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J32" s="5">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="F33" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J33" s="5">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="B5:O5"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="J33:L33"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:P33"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="false" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="true" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" customHeight="1" ht="15">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="H1"/>
+    </row>
+    <row r="2" spans="1:16" customHeight="1" ht="15">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+    </row>
+    <row r="3" spans="1:16" customHeight="1" ht="15"/>
+    <row r="4" spans="1:16" customHeight="1" ht="20.25">
+      <c r="A4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+    </row>
+    <row r="5" spans="1:16" customHeight="1" ht="15">
+      <c r="B5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="1:16" customHeight="1" ht="15"/>
+    <row r="7" spans="1:16" customHeight="1" ht="15">
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="I7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="1:16" customHeight="1" ht="15">
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5">
+        <v>7480001</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="I8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="5">
+        <v>6</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" customHeight="1" ht="15">
+      <c r="A9" s="1"/>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="I9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" customHeight="1" ht="15">
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="I10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="5">
+        <v>37408</v>
+      </c>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="1:16" customHeight="1" ht="15">
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="I11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="14" spans="1:16" customHeight="1" ht="15.75">
+      <c r="H14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="16" spans="1:16" customHeight="1" ht="15">
+      <c r="B16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="12">
+        <v>26306473</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="B17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="B18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="13">
+        <v>72671</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="B19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="B20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="H22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:16" customHeight="1" ht="15">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="F24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" s="5">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="F25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" s="5">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="F26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="5">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="F27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" s="5">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="F28" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J28" s="5">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="F29" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J29" s="5">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="F30" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J30" s="5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="F31" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J31" s="5">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="F32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J32" s="5">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="F33" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J33" s="5">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="B5:O5"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="J33:L33"/>
+  </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
